--- a/ДЗ 3 и 4.xlsx
+++ b/ДЗ 3 и 4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>№</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Строка "Гарантия лучших цен" успешно открыта</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>проверено</t>
   </si>
 </sst>
 </file>
@@ -295,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -392,6 +398,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -400,7 +415,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -434,6 +449,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -730,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -744,9 +767,10 @@
     <col min="4" max="4" width="39.77734375" customWidth="1"/>
     <col min="5" max="5" width="38.44140625" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -763,8 +787,11 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.799999999999997" customHeight="1" thickBot="1">
+      <c r="G1" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.799999999999997" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="9"/>
@@ -775,8 +802,11 @@
         <v>6</v>
       </c>
       <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="93" customHeight="1" thickBot="1">
+      <c r="G2" s="13">
+        <v>43649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="93" customHeight="1" thickBot="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -795,8 +825,11 @@
       <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="84" customHeight="1" thickBot="1">
+      <c r="G3" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="84" customHeight="1" thickBot="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -813,8 +846,11 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="68.400000000000006" customHeight="1" thickBot="1">
+      <c r="G4" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="68.400000000000006" customHeight="1" thickBot="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -832,7 +868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="80.400000000000006" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="80.400000000000006" customHeight="1" thickBot="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -850,7 +886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="76.8" customHeight="1" thickBot="1">
+    <row r="7" spans="1:7" ht="76.8" customHeight="1" thickBot="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -866,7 +902,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="82.2" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="82.2" customHeight="1" thickBot="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -882,7 +918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="90" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="90" customHeight="1" thickBot="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -898,7 +934,7 @@
         <v>89523570160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="86.4" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="86.4" customHeight="1" thickBot="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -916,7 +952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="75.599999999999994" customHeight="1" thickBot="1">
+    <row r="11" spans="1:7" ht="75.599999999999994" customHeight="1" thickBot="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -932,7 +968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="91.2" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="91.2" customHeight="1" thickBot="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -952,7 +988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="86.4" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="86.4" customHeight="1" thickBot="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -968,7 +1004,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="94.8" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="94.8" customHeight="1" thickBot="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -984,7 +1020,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="124.2" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="124.2" customHeight="1" thickBot="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1000,7 +1036,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="91.2" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="91.2" customHeight="1" thickBot="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
